--- a/serverxlsx/goods_specification.xlsx
+++ b/serverxlsx/goods_specification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>all,required,string</t>
   </si>
@@ -206,6 +206,10 @@
   <si>
     <t>cfgId</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hf1_2_s_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -567,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -772,7 +776,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
